--- a/spec/files/small_list_incomplete.xlsx
+++ b/spec/files/small_list_incomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -4340,7 +4340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
@@ -4492,9 +4492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5129,15 +5129,15 @@
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="3">
+        <v>-4</v>
+      </c>
+      <c r="K22" s="3">
         <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>-4</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3">
         <f>(K22-J22)/6</f>
-        <v>-1.3333333333333333</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>30</v>

--- a/spec/files/small_list_incomplete.xlsx
+++ b/spec/files/small_list_incomplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
     <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="468">
   <si>
     <t>type</t>
   </si>
@@ -99,12 +102,6 @@
     <t>Sample Method</t>
   </si>
   <si>
-    <t>LHS</t>
-  </si>
-  <si>
-    <t>Sensitivity Method</t>
-  </si>
-  <si>
     <t>argument</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Path (relative to this excel file)</t>
   </si>
   <si>
-    <t>../analysis</t>
-  </si>
-  <si>
     <t>Files to include (absolute paths here). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>Inputs</t>
   </si>
   <si>
-    <t>All Measures</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -1374,9 +1365,6 @@
     <t>|Residential Gas,Small CG,Large CG,Interruptible Industrial G,Non-Xcel Gas Firm,Non-Xcel Gas Interruptible|</t>
   </si>
   <si>
-    <t>Test Run 1</t>
-  </si>
-  <si>
     <t>../../spec/files/measures</t>
   </si>
   <si>
@@ -1387,6 +1375,63 @@
   </si>
   <si>
     <t>../../spec/files/small_seed.osm</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Spreadsheet Version</t>
+  </si>
+  <si>
+    <t>0.1.9</t>
+  </si>
+  <si>
+    <t>Do NOT change this unless advised</t>
+  </si>
+  <si>
+    <t>Server Instance Type</t>
+  </si>
+  <si>
+    <t>m2.xlarge</t>
+  </si>
+  <si>
+    <t>Use a minimum of 2 cores for server</t>
+  </si>
+  <si>
+    <t>Worker Instance Type</t>
+  </si>
+  <si>
+    <t>Depends on how many simuations. If you are testing, then you can select a smaller instance.</t>
+  </si>
+  <si>
+    <t>Example Analysis</t>
+  </si>
+  <si>
+    <t>This will be the name that is displayed on the server instance and used to identify the cluster.</t>
+  </si>
+  <si>
+    <t>../../spec/files/export/analysis</t>
+  </si>
+  <si>
+    <t>Place any Problem Specific entries here.  The names will be downcased and underscored automatically, so either enter them as readable or already "snake_cased"</t>
+  </si>
+  <si>
+    <t>Analysis Type</t>
+  </si>
+  <si>
+    <t>Algorithm Setup</t>
+  </si>
+  <si>
+    <t>all_variables</t>
+  </si>
+  <si>
+    <t>Number of Generations</t>
+  </si>
+  <si>
+    <t>If there are more than one seed models, then you will submit the same analysis for each seed model.</t>
+  </si>
+  <si>
+    <t>You can change the identifier (which becomes the file name for the zip and json file) and the seed model location.</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1522,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2722,7 +2779,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2771,6 +2828,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4017,6 +4088,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="Setup"/>
+      <sheetName val="Variables"/>
+      <sheetName val="BCL Measure Data"/>
+      <sheetName val="Lookups"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>m2.xlarge</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>2 Cores</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>$0.410/hour</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>m2.2xlarge</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>4 Cores</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>$0.820/hour</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>c3.2xlarge</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>8 Cores</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>$1.20/hour</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>cc2.8xlarge</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>16 Cores</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>$2.40/hour</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4317,12 +4454,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4338,149 +4475,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1">
+      <c r="A2" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28">
+      <c r="A5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A15" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="26">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
-      <c r="A6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A11" s="12" t="s">
+      <c r="B23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
-      <c r="A14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B26" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lookups!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lookups!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -4492,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
@@ -4519,7 +4775,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4535,7 +4791,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
@@ -4548,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
@@ -4564,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>16</v>
@@ -4579,7 +4835,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>12</v>
@@ -4626,13 +4882,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -4648,26 +4904,26 @@
     <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4679,19 +4935,19 @@
     <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G6"/>
       <c r="H6">
@@ -4711,7 +4967,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
@@ -4719,19 +4975,19 @@
     <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7"/>
       <c r="H7">
@@ -4747,19 +5003,19 @@
     <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8"/>
       <c r="H8">
@@ -4775,19 +5031,19 @@
     <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9"/>
       <c r="H9">
@@ -4803,19 +5059,19 @@
     <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="b">
@@ -4831,19 +5087,19 @@
     <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G11"/>
       <c r="H11">
@@ -4859,19 +5115,19 @@
     <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G12"/>
       <c r="H12">
@@ -4887,19 +5143,19 @@
     <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13"/>
       <c r="H13">
@@ -4917,53 +5173,53 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:22" customFormat="1">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:22" customFormat="1">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -4982,24 +5238,24 @@
         <v>5</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5007,19 +5263,19 @@
     </row>
     <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5027,19 +5283,19 @@
     </row>
     <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -5050,13 +5306,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -5072,19 +5328,19 @@
     <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20">
@@ -5103,25 +5359,25 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20">
@@ -5140,25 +5396,25 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="b">
@@ -5171,13 +5427,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -5188,19 +5444,19 @@
     <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -5221,25 +5477,25 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -5250,19 +5506,19 @@
     <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20">
@@ -5273,19 +5529,19 @@
     <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -5298,13 +5554,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -5315,19 +5571,19 @@
     <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -5348,25 +5604,25 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20">
@@ -5377,19 +5633,19 @@
     <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20">
@@ -5400,19 +5656,19 @@
     <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20">
@@ -5425,13 +5681,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -5442,44 +5698,44 @@
     <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -5496,25 +5752,25 @@
         <v>25</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:14" customFormat="1" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20">
@@ -5525,19 +5781,19 @@
     <row r="38" spans="1:14" customFormat="1" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20">
@@ -5548,19 +5804,19 @@
     <row r="39" spans="1:14" customFormat="1" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20">
@@ -5573,13 +5829,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -5590,44 +5846,44 @@
     <row r="41" spans="1:14" customFormat="1" ht="15">
       <c r="A41" s="20"/>
       <c r="B41" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:14" customFormat="1" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20">
@@ -5648,7 +5904,7 @@
         <v>15</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5691,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -5708,19 +5964,19 @@
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -5729,19 +5985,19 @@
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="b">
@@ -5752,19 +6008,19 @@
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20">
@@ -5775,19 +6031,19 @@
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20">
@@ -5798,19 +6054,19 @@
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20">
@@ -5821,19 +6077,19 @@
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="b">
@@ -5844,19 +6100,19 @@
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20">
@@ -5867,19 +6123,19 @@
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20">
@@ -5890,19 +6146,19 @@
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5915,13 +6171,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -5932,19 +6188,19 @@
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -5953,19 +6209,19 @@
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="b">
@@ -5976,19 +6232,19 @@
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20">
@@ -5999,19 +6255,19 @@
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20">
@@ -6022,19 +6278,19 @@
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20">
@@ -6045,19 +6301,19 @@
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="b">
@@ -6068,19 +6324,19 @@
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20">
@@ -6091,19 +6347,19 @@
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20">
@@ -6114,19 +6370,19 @@
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20">
@@ -6139,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -6156,19 +6412,19 @@
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="b">
@@ -6179,42 +6435,42 @@
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20">
@@ -6225,19 +6481,19 @@
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -6248,19 +6504,19 @@
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -6271,19 +6527,19 @@
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="b">
@@ -6294,19 +6550,19 @@
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -6317,19 +6573,19 @@
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20">
@@ -6340,19 +6596,19 @@
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -6365,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -6382,19 +6638,19 @@
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -6403,19 +6659,19 @@
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="b">
@@ -6426,19 +6682,19 @@
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20">
@@ -6449,19 +6705,19 @@
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20">
@@ -6472,19 +6728,19 @@
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -6495,19 +6751,19 @@
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="b">
@@ -6518,19 +6774,19 @@
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20">
@@ -6541,19 +6797,19 @@
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20">
@@ -6564,19 +6820,19 @@
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20">
@@ -6589,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -6606,19 +6862,19 @@
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -6627,19 +6883,19 @@
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20" t="b">
@@ -6650,19 +6906,19 @@
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20">
@@ -6673,19 +6929,19 @@
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20">
@@ -6696,19 +6952,19 @@
     <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20">
@@ -6719,19 +6975,19 @@
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20" t="b">
@@ -6742,19 +6998,19 @@
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20">
@@ -6765,19 +7021,19 @@
     <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20">
@@ -6788,19 +7044,19 @@
     <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20">
@@ -6813,13 +7069,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -6830,19 +7086,19 @@
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -6851,19 +7107,19 @@
     <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="b">
@@ -6874,19 +7130,19 @@
     <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20">
@@ -6897,19 +7153,19 @@
     <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20">
@@ -6920,19 +7176,19 @@
     <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20">
@@ -6943,19 +7199,19 @@
     <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20" t="b">
@@ -6966,19 +7222,19 @@
     <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20">
@@ -6989,19 +7245,19 @@
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20">
@@ -7012,19 +7268,19 @@
     <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20">
@@ -7037,13 +7293,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -7054,19 +7310,19 @@
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -7075,44 +7331,44 @@
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="b">
@@ -7123,19 +7379,19 @@
     <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20">
@@ -7146,19 +7402,19 @@
     <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20">
@@ -7169,19 +7425,19 @@
     <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20">
@@ -7192,19 +7448,19 @@
     <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20" t="b">
@@ -7215,19 +7471,19 @@
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20">
@@ -7238,19 +7494,19 @@
     <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20">
@@ -7261,19 +7517,19 @@
     <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20">
@@ -7286,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -7303,19 +7559,19 @@
     <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -7324,19 +7580,19 @@
     <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20">
@@ -7347,44 +7603,44 @@
     <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20">
@@ -7395,19 +7651,19 @@
     <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20">
@@ -7418,19 +7674,19 @@
     <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20">
@@ -7441,19 +7697,19 @@
     <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="20">
@@ -7464,19 +7720,19 @@
     <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20">
@@ -7487,19 +7743,19 @@
     <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20">
@@ -7510,19 +7766,19 @@
     <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="b">
@@ -7533,19 +7789,19 @@
     <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20">
@@ -7556,19 +7812,19 @@
     <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="20">
@@ -7579,19 +7835,19 @@
     <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="20">
@@ -7604,13 +7860,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -7621,19 +7877,19 @@
     <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E87" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20">
@@ -7644,42 +7900,42 @@
     <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="b">
@@ -7690,19 +7946,19 @@
     <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20">
@@ -7713,19 +7969,19 @@
     <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20">
@@ -7736,19 +7992,19 @@
     <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20">
@@ -7759,19 +8015,19 @@
     <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20" t="b">
@@ -7782,19 +8038,19 @@
     <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20">
@@ -7805,19 +8061,19 @@
     <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="20">
@@ -7828,19 +8084,19 @@
     <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20">
@@ -7853,13 +8109,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -7870,26 +8126,26 @@
     <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="20" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
@@ -7897,13 +8153,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -7914,19 +8170,19 @@
     <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -7935,26 +8191,26 @@
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
@@ -7962,13 +8218,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -7979,19 +8235,19 @@
     <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="20">
@@ -8002,44 +8258,44 @@
     <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="20" t="b">
@@ -8050,19 +8306,19 @@
     <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -8073,13 +8329,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -8090,44 +8346,44 @@
     <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="20">
@@ -8138,19 +8394,19 @@
     <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="20">
@@ -8161,19 +8417,19 @@
     <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="20">
@@ -8184,19 +8440,19 @@
     <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E112" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="20">
@@ -8207,19 +8463,19 @@
     <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="20">
@@ -8230,19 +8486,19 @@
     <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20">
@@ -8255,13 +8511,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -8272,19 +8528,19 @@
     <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="20">
@@ -8295,19 +8551,19 @@
     <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="20">
@@ -8318,19 +8574,19 @@
     <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="20" t="b">
@@ -8343,13 +8599,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -8360,19 +8616,19 @@
     <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="20">
@@ -8383,19 +8639,19 @@
     <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20">
@@ -8406,19 +8662,19 @@
     <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="20">
@@ -8429,19 +8685,19 @@
     <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G123" s="20"/>
       <c r="H123" s="20">
@@ -8452,19 +8708,19 @@
     <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="b">
@@ -8475,19 +8731,19 @@
     <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E125" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G125" s="20"/>
       <c r="H125" s="20" t="b">
@@ -8500,13 +8756,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -8517,44 +8773,44 @@
     <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="20" t="b">
@@ -8565,19 +8821,19 @@
     <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="20">
@@ -8588,19 +8844,19 @@
     <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E130" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20">
@@ -8611,19 +8867,19 @@
     <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="20">
@@ -8634,19 +8890,19 @@
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E132" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="20" t="b">
@@ -8657,19 +8913,19 @@
     <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E133" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20">
@@ -8680,19 +8936,19 @@
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E134" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="20">
@@ -8703,19 +8959,19 @@
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E135" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20">
@@ -8728,13 +8984,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -8745,44 +9001,44 @@
     <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -8791,19 +9047,19 @@
     <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E139" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20">
@@ -8814,19 +9070,19 @@
     <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E140" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G140" s="20"/>
       <c r="H140" s="20">
@@ -8837,19 +9093,19 @@
     <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E141" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20">
@@ -8860,19 +9116,19 @@
     <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E142" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20">
@@ -8883,19 +9139,19 @@
     <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E143" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20" t="b">
@@ -8906,19 +9162,19 @@
     <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E144" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20">
@@ -8929,19 +9185,19 @@
     <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E145" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20">
@@ -8952,19 +9208,19 @@
     <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E146" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20">
@@ -8975,19 +9231,19 @@
     <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E147" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20" t="b">
@@ -8998,19 +9254,19 @@
     <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E148" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G148" s="20"/>
       <c r="H148" s="20">
@@ -9021,19 +9277,19 @@
     <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E149" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20">
@@ -9044,19 +9300,19 @@
     <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E150" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="20">
@@ -9069,13 +9325,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -9086,19 +9342,19 @@
     <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E152" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G152" s="20"/>
       <c r="H152" s="20">
@@ -9111,13 +9367,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -9128,46 +9384,46 @@
     <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E154" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I154" s="20"/>
     </row>
     <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E155" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I155" s="20"/>
     </row>
@@ -9176,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -9193,44 +9449,44 @@
     <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G157" s="20"/>
       <c r="H157" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E158" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G158" s="20"/>
       <c r="H158" s="20">
@@ -9241,19 +9497,19 @@
     <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E159" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="20" t="b">
@@ -9264,19 +9520,19 @@
     <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E160" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="20">
@@ -9287,19 +9543,19 @@
     <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E161" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G161" s="20"/>
       <c r="H161" s="20">
@@ -9310,19 +9566,19 @@
     <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E162" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G162" s="20"/>
       <c r="H162" s="20">
@@ -9333,19 +9589,19 @@
     <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E163" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G163" s="20"/>
       <c r="H163" s="20" t="b">
@@ -9356,19 +9612,19 @@
     <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E164" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G164" s="20"/>
       <c r="H164" s="20">
@@ -9379,19 +9635,19 @@
     <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="20">
@@ -9402,19 +9658,19 @@
     <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E166" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G166" s="20"/>
       <c r="H166" s="20">
@@ -9427,13 +9683,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -9444,44 +9700,44 @@
     <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E168" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G168" s="20"/>
       <c r="H168" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G169" s="20"/>
       <c r="H169" s="20">
@@ -9492,19 +9748,19 @@
     <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E170" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="20" t="b">
@@ -9515,19 +9771,19 @@
     <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E171" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G171" s="20"/>
       <c r="H171" s="20">
@@ -9538,19 +9794,19 @@
     <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E172" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G172" s="20"/>
       <c r="H172" s="20">
@@ -9561,19 +9817,19 @@
     <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E173" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G173" s="20"/>
       <c r="H173" s="20">
@@ -9584,19 +9840,19 @@
     <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E174" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="20" t="b">
@@ -9607,19 +9863,19 @@
     <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E175" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G175" s="20"/>
       <c r="H175" s="20">
@@ -9630,19 +9886,19 @@
     <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E176" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G176" s="20"/>
       <c r="H176" s="20">
@@ -9653,19 +9909,19 @@
     <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E177" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G177" s="20"/>
       <c r="H177" s="20">
@@ -9678,13 +9934,13 @@
         <v>0</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -9695,19 +9951,19 @@
     <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E179" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G179" s="20"/>
       <c r="H179" s="20">
@@ -9718,19 +9974,19 @@
     <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G180" s="20"/>
       <c r="H180" s="20">
@@ -9741,19 +9997,19 @@
     <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E181" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F181" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G181" s="20"/>
       <c r="H181" s="20">
@@ -9764,19 +10020,19 @@
     <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E182" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F182" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G182" s="20"/>
       <c r="H182" s="20">
@@ -9789,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -9806,19 +10062,19 @@
     <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E184" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F184" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="20">
@@ -9829,19 +10085,19 @@
     <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E185" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F185" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="20">
@@ -9852,19 +10108,19 @@
     <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E186" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F186" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G186" s="20"/>
       <c r="H186" s="20">
@@ -9875,19 +10131,19 @@
     <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E187" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G187" s="20"/>
       <c r="H187" s="20">
@@ -9900,13 +10156,13 @@
         <v>0</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -9917,19 +10173,19 @@
     <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E189" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -9938,19 +10194,19 @@
     <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E190" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G190" s="20"/>
       <c r="H190" s="20" t="b">
@@ -9963,13 +10219,13 @@
         <v>0</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -9980,19 +10236,19 @@
     <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E192" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F192" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20" t="b">
@@ -10003,44 +10259,44 @@
     <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E193" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G193" s="20"/>
       <c r="H193" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E194" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -10049,51 +10305,51 @@
     <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E195" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G195" s="20"/>
       <c r="H195" s="20" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I195" s="20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E196" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G196" s="20"/>
       <c r="H196" s="20" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I196" s="20" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15">
@@ -10101,13 +10357,13 @@
         <v>0</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -10118,44 +10374,44 @@
     <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E198" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G198" s="20"/>
       <c r="H198" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I198" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="20">
@@ -10166,19 +10422,19 @@
     <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E200" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="20">
@@ -10189,19 +10445,19 @@
     <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G201" s="20"/>
       <c r="H201" s="20">
@@ -10212,19 +10468,19 @@
     <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F202" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G202" s="20"/>
       <c r="H202" s="20">
@@ -10235,19 +10491,19 @@
     <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G203" s="20"/>
       <c r="H203" s="20" t="b">
@@ -10258,19 +10514,19 @@
     <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E204" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G204" s="20"/>
       <c r="H204" s="20">
@@ -10281,19 +10537,19 @@
     <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G205" s="20"/>
       <c r="H205" s="20">
@@ -10304,19 +10560,19 @@
     <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E206" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G206" s="20"/>
       <c r="H206" s="20">
@@ -10329,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -10346,44 +10602,44 @@
     <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E208" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F209" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G209" s="20"/>
       <c r="H209" s="20">
@@ -10394,19 +10650,19 @@
     <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E210" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G210" s="20"/>
       <c r="H210" s="20">
@@ -10417,19 +10673,19 @@
     <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E211" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20">
@@ -10440,19 +10696,19 @@
     <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E212" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G212" s="20"/>
       <c r="H212" s="20">
@@ -10463,19 +10719,19 @@
     <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E213" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G213" s="20"/>
       <c r="H213" s="20" t="b">
@@ -10486,19 +10742,19 @@
     <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E214" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G214" s="20"/>
       <c r="H214" s="20">
@@ -10509,19 +10765,19 @@
     <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E215" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F215" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G215" s="20"/>
       <c r="H215" s="20">
@@ -10532,19 +10788,19 @@
     <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E216" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G216" s="20"/>
       <c r="H216" s="20">
@@ -10557,13 +10813,13 @@
         <v>0</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -10574,19 +10830,19 @@
     <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E218" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F218" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G218" s="20"/>
       <c r="H218" s="20"/>
@@ -10595,19 +10851,19 @@
     <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G219" s="20"/>
       <c r="H219" s="20">
@@ -10618,19 +10874,19 @@
     <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E220" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="20" t="b">
@@ -10641,19 +10897,19 @@
     <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E221" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G221" s="20"/>
       <c r="H221" s="20">
@@ -10664,19 +10920,19 @@
     <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E222" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20">
@@ -10687,19 +10943,19 @@
     <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E223" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G223" s="20"/>
       <c r="H223" s="20" t="b">
@@ -10710,19 +10966,19 @@
     <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E224" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G224" s="20"/>
       <c r="H224" s="20">
@@ -10733,19 +10989,19 @@
     <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E225" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F225" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="20">
@@ -10756,19 +11012,19 @@
     <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E226" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F226" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="20" t="b">
@@ -10779,19 +11035,19 @@
     <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E227" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F227" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G227" s="20"/>
       <c r="H227" s="20">
@@ -10802,19 +11058,19 @@
     <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E228" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F228" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G228" s="20"/>
       <c r="H228" s="20">
@@ -10825,19 +11081,19 @@
     <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G229" s="20"/>
       <c r="H229" s="20">
@@ -10848,19 +11104,19 @@
     <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E230" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F230" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G230" s="20"/>
       <c r="H230" s="20">
@@ -10871,19 +11127,19 @@
     <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E231" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="20">
@@ -10894,19 +11150,19 @@
     <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E232" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G232" s="20"/>
       <c r="H232" s="20">
@@ -10917,19 +11173,19 @@
     <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E233" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F233" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G233" s="20"/>
       <c r="H233" s="20">
@@ -10942,13 +11198,13 @@
         <v>0</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -10959,19 +11215,19 @@
     <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
@@ -10980,19 +11236,19 @@
     <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="20">
@@ -11003,19 +11259,19 @@
     <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E237" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F237" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="20" t="b">
@@ -11026,19 +11282,19 @@
     <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E238" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F238" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20">
@@ -11049,19 +11305,19 @@
     <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E239" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G239" s="20"/>
       <c r="H239" s="20">
@@ -11072,19 +11328,19 @@
     <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G240" s="20"/>
       <c r="H240" s="20" t="b">
@@ -11095,19 +11351,19 @@
     <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E241" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G241" s="20"/>
       <c r="H241" s="20">
@@ -11118,19 +11374,19 @@
     <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E242" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="20">
@@ -11141,19 +11397,19 @@
     <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E243" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G243" s="20"/>
       <c r="H243" s="20" t="b">
@@ -11164,19 +11420,19 @@
     <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E244" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G244" s="20"/>
       <c r="H244" s="20">
@@ -11187,19 +11443,19 @@
     <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E245" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="20">
@@ -11210,19 +11466,19 @@
     <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F246" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G246" s="20"/>
       <c r="H246" s="20">
@@ -11233,19 +11489,19 @@
     <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G247" s="20"/>
       <c r="H247" s="20">
@@ -11256,19 +11512,19 @@
     <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E248" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G248" s="20"/>
       <c r="H248" s="20">
@@ -11279,19 +11535,19 @@
     <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G249" s="20"/>
       <c r="H249" s="20">
@@ -11302,19 +11558,19 @@
     <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E250" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="20">
@@ -11327,13 +11583,13 @@
         <v>0</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -11344,44 +11600,44 @@
     <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E252" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I252" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G253" s="20"/>
       <c r="H253" s="20">
@@ -11392,19 +11648,19 @@
     <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E254" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G254" s="20"/>
       <c r="H254" s="20">
@@ -11415,19 +11671,19 @@
     <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E255" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F255" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="20">
@@ -11438,19 +11694,19 @@
     <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E256" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F256" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G256" s="20"/>
       <c r="H256" s="20">
@@ -11463,13 +11719,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -11480,44 +11736,44 @@
     <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E258" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G258" s="20"/>
       <c r="H258" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I258" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E259" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F259" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G259" s="20"/>
       <c r="H259" s="20">
@@ -11530,13 +11786,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -11549,13 +11805,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -11568,13 +11824,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -11585,19 +11841,19 @@
     <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F263" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G263" s="20"/>
       <c r="H263" s="20"/>
@@ -11606,19 +11862,19 @@
     <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E264" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F264" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G264" s="20"/>
       <c r="H264" s="20" t="b">
@@ -11629,19 +11885,19 @@
     <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E265" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F265" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G265" s="20"/>
       <c r="H265" s="20" t="b">
@@ -11652,19 +11908,19 @@
     <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E266" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F266" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G266" s="20"/>
       <c r="H266" s="20" t="b">
@@ -11675,19 +11931,19 @@
     <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F267" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G267" s="20"/>
       <c r="H267" s="20">
@@ -11698,19 +11954,19 @@
     <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E268" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F268" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G268" s="20"/>
       <c r="H268" s="20">
@@ -11721,19 +11977,19 @@
     <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F269" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G269" s="20"/>
       <c r="H269" s="20">
@@ -11744,19 +12000,19 @@
     <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E270" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="20" t="b">
@@ -11767,19 +12023,19 @@
     <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E271" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G271" s="20"/>
       <c r="H271" s="20">
@@ -11790,19 +12046,19 @@
     <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E272" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F272" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="20">
@@ -11813,19 +12069,19 @@
     <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E273" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F273" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G273" s="20"/>
       <c r="H273" s="20">
@@ -11838,13 +12094,13 @@
         <v>0</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -11855,19 +12111,19 @@
     <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G275" s="20"/>
       <c r="H275" s="20">
@@ -11880,13 +12136,13 @@
         <v>0</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -11897,44 +12153,44 @@
     <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F277" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G277" s="20"/>
       <c r="H277" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I277" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E278" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F278" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="20">
@@ -11945,19 +12201,19 @@
     <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E279" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F279" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="20">
@@ -11968,19 +12224,19 @@
     <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="b">
@@ -11991,19 +12247,19 @@
     <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F281" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G281" s="20"/>
       <c r="H281" s="20">
@@ -12014,19 +12270,19 @@
     <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D282" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F282" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20">
@@ -12037,19 +12293,19 @@
     <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E283" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F283" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G283" s="20"/>
       <c r="H283" s="20">
@@ -12060,19 +12316,19 @@
     <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E284" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F284" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="20" t="b">
@@ -12083,19 +12339,19 @@
     <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E285" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="20">
@@ -12106,19 +12362,19 @@
     <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F286" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G286" s="20"/>
       <c r="H286" s="20">
@@ -12129,19 +12385,19 @@
     <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="20">
@@ -12154,13 +12410,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D288" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -12171,19 +12427,19 @@
     <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E289" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F289" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="20">
@@ -12196,13 +12452,13 @@
         <v>0</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D290" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -12213,19 +12469,19 @@
     <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E291" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
@@ -12236,13 +12492,13 @@
         <v>0</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -12253,19 +12509,19 @@
     <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F293" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G293" s="20"/>
       <c r="H293" s="20"/>
@@ -12276,13 +12532,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D294" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -12293,19 +12549,19 @@
     <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="20"/>
@@ -12316,13 +12572,13 @@
         <v>0</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D296" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -12333,19 +12589,19 @@
     <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E297" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F297" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G297" s="20"/>
       <c r="H297" s="20">
@@ -12358,13 +12614,13 @@
         <v>0</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -12375,44 +12631,44 @@
     <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F299" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I299" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F300" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G300" s="20"/>
       <c r="H300" s="20">
@@ -12423,19 +12679,19 @@
     <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D301" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G301" s="20"/>
       <c r="H301" s="20">
@@ -12446,19 +12702,19 @@
     <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F302" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G302" s="20"/>
       <c r="H302" s="20">
@@ -12469,19 +12725,19 @@
     <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D303" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E303" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G303" s="20"/>
       <c r="H303" s="20">
@@ -12492,19 +12748,19 @@
     <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D304" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E304" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F304" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="20" t="b">
@@ -12515,19 +12771,19 @@
     <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D305" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E305" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F305" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="20">
@@ -12538,19 +12794,19 @@
     <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D306" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E306" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F306" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="20">
@@ -12561,19 +12817,19 @@
     <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E307" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F307" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="20">
@@ -12586,13 +12842,13 @@
         <v>0</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D308" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -12603,19 +12859,19 @@
     <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D309" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E309" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F309" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="20">
@@ -12626,19 +12882,19 @@
     <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E310" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F310" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G310" s="20"/>
       <c r="H310" s="20">
@@ -12649,19 +12905,19 @@
     <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D311" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E311" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F311" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="20">
@@ -12672,19 +12928,19 @@
     <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E312" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F312" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="20">
@@ -12697,13 +12953,13 @@
         <v>0</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -12714,19 +12970,19 @@
     <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E314" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F314" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G314" s="20"/>
       <c r="H314" s="20">
@@ -12737,19 +12993,19 @@
     <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E315" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F315" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G315" s="20"/>
       <c r="H315" s="20">
@@ -12760,26 +13016,26 @@
     <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E316" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F316" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15">
@@ -12787,13 +13043,13 @@
         <v>0</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D317" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -12804,44 +13060,44 @@
     <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E318" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F318" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G318" s="20"/>
       <c r="H318" s="20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E319" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F319" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G319" s="20"/>
       <c r="H319" s="20">
@@ -12854,13 +13110,13 @@
         <v>0</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -12871,19 +13127,19 @@
     <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D321" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E321" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F321" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G321" s="20"/>
       <c r="H321" s="20"/>
@@ -12892,19 +13148,19 @@
     <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E322" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F322" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G322" s="20"/>
       <c r="H322" s="20"/>
@@ -12913,19 +13169,19 @@
     <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E323" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F323" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G323" s="20"/>
       <c r="H323" s="20" t="b">
@@ -12938,13 +13194,13 @@
         <v>0</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D324" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -12957,13 +13213,13 @@
         <v>0</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D325" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -12974,51 +13230,51 @@
     <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E326" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F326" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G326" s="20"/>
       <c r="H326" s="20" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I326" s="20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E327" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F327" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G327" s="20"/>
       <c r="H327" s="20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I327" s="20" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/spec/files/small_list_incomplete.xlsx
+++ b/spec/files/small_list_incomplete.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
+    <sheet name="Outputs" sheetId="11" r:id="rId4"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="475">
   <si>
     <t>type</t>
   </si>
@@ -1432,6 +1434,27 @@
   </si>
   <si>
     <t>You can change the identifier (which becomes the file name for the zip and json file) and the seed model location.</t>
+  </si>
+  <si>
+    <t>Variable Display Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function target</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>(double)</t>
   </si>
 </sst>
 </file>
@@ -2825,9 +2848,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2842,6 +2862,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4089,12 +4112,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
       <sheetName val="Setup"/>
       <sheetName val="Variables"/>
+      <sheetName val="Outputs"/>
       <sheetName val="BCL Measure Data"/>
       <sheetName val="Lookups"/>
     </sheetNames>
@@ -4103,7 +4127,8 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
             <v>m2.xlarge</v>
@@ -4447,17 +4472,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4477,39 +4502,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="24" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>450</v>
       </c>
@@ -4520,11 +4545,11 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>454</v>
       </c>
       <c r="C4" s="3" t="str">
@@ -4539,11 +4564,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>454</v>
       </c>
       <c r="C5" s="3" t="str">
@@ -4558,102 +4583,102 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1">
+    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>458</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -4662,19 +4687,19 @@
       <c r="D20" s="12"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -4687,28 +4712,28 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>447</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -4753,25 +4778,25 @@
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4790,16 +4815,16 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-    </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4812,7 +4837,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4877,7 +4902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -4901,7 +4926,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>24</v>
@@ -4932,7 +4957,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>25</v>
@@ -4972,7 +4997,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>24</v>
@@ -5000,7 +5025,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>24</v>
@@ -5028,7 +5053,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -5056,7 +5081,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>24</v>
@@ -5084,7 +5109,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>24</v>
@@ -5112,7 +5137,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -5140,7 +5165,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>24</v>
@@ -5168,7 +5193,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1">
+    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -5182,7 +5207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:22" customFormat="1">
+    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -5205,7 +5230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:22" customFormat="1">
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5241,7 +5266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1">
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -5261,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1">
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -5281,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1">
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -5301,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" ht="15">
+    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="b">
         <v>1</v>
       </c>
@@ -5325,7 +5350,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15">
+    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -5362,7 +5387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15">
+    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -5399,7 +5424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15">
+    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -5422,7 +5447,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15">
+    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="b">
         <v>1</v>
       </c>
@@ -5441,7 +5466,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15">
+    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -5480,7 +5505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15">
+    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -5503,7 +5528,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15">
+    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -5526,7 +5551,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15">
+    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -5549,7 +5574,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15">
+    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="b">
         <v>1</v>
       </c>
@@ -5568,7 +5593,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15">
+    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -5607,7 +5632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15">
+    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
         <v>24</v>
@@ -5630,7 +5655,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15">
+    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -5653,7 +5678,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15">
+    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -5676,7 +5701,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15">
+    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="b">
         <v>1</v>
       </c>
@@ -5695,7 +5720,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15">
+    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -5720,7 +5745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15">
+    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -5755,7 +5780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:14" customFormat="1" ht="15">
+    <row r="37" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>24</v>
@@ -5778,7 +5803,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:14" customFormat="1" ht="15">
+    <row r="38" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>24</v>
@@ -5801,7 +5826,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:14" customFormat="1" ht="15">
+    <row r="39" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
@@ -5824,7 +5849,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:14" customFormat="1" ht="15">
+    <row r="40" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="b">
         <v>1</v>
       </c>
@@ -5843,7 +5868,7 @@
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:14" customFormat="1" ht="15">
+    <row r="41" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="20" t="s">
         <v>24</v>
@@ -5868,7 +5893,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:14" customFormat="1" ht="15">
+    <row r="42" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -5924,25 +5949,581 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="15"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:W13"/>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView topLeftCell="A228" workbookViewId="0">
       <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -5961,7 +6542,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>24</v>
@@ -5982,7 +6563,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
@@ -6005,7 +6586,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>24</v>
@@ -6028,7 +6609,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>24</v>
@@ -6051,7 +6632,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>24</v>
@@ -6074,7 +6655,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>24</v>
@@ -6097,7 +6678,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>24</v>
@@ -6120,7 +6701,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>24</v>
@@ -6143,7 +6724,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>24</v>
@@ -6166,7 +6747,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6185,7 +6766,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>24</v>
@@ -6206,7 +6787,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>24</v>
@@ -6229,7 +6810,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>24</v>
@@ -6252,7 +6833,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>24</v>
@@ -6275,7 +6856,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>24</v>
@@ -6298,7 +6879,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
@@ -6321,7 +6902,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -6344,7 +6925,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>24</v>
@@ -6367,7 +6948,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>24</v>
@@ -6390,7 +6971,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6409,7 +6990,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>24</v>
@@ -6432,7 +7013,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -6455,7 +7036,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>24</v>
@@ -6478,7 +7059,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>24</v>
@@ -6501,7 +7082,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -6524,7 +7105,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -6547,7 +7128,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -6570,7 +7151,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>24</v>
@@ -6593,7 +7174,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>24</v>
@@ -6616,7 +7197,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -6635,7 +7216,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -6656,7 +7237,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -6679,7 +7260,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -6702,7 +7283,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -6725,7 +7306,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>24</v>
@@ -6748,7 +7329,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>24</v>
@@ -6771,7 +7352,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>24</v>
@@ -6794,7 +7375,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
@@ -6817,7 +7398,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>24</v>
@@ -6840,7 +7421,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6859,7 +7440,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>24</v>
@@ -6880,7 +7461,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>24</v>
@@ -6903,7 +7484,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>24</v>
@@ -6926,7 +7507,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>24</v>
@@ -6949,7 +7530,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>24</v>
@@ -6972,7 +7553,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>24</v>
@@ -6995,7 +7576,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>24</v>
@@ -7018,7 +7599,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>24</v>
@@ -7041,7 +7622,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>24</v>
@@ -7064,7 +7645,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7083,7 +7664,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>24</v>
@@ -7104,7 +7685,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>24</v>
@@ -7127,7 +7708,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>24</v>
@@ -7150,7 +7731,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>24</v>
@@ -7173,7 +7754,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>24</v>
@@ -7196,7 +7777,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>24</v>
@@ -7219,7 +7800,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>24</v>
@@ -7242,7 +7823,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>24</v>
@@ -7265,7 +7846,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>24</v>
@@ -7288,7 +7869,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7307,7 +7888,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>24</v>
@@ -7328,7 +7909,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>24</v>
@@ -7353,7 +7934,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>24</v>
@@ -7376,7 +7957,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>24</v>
@@ -7399,7 +7980,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>24</v>
@@ -7422,7 +8003,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>24</v>
@@ -7445,7 +8026,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>24</v>
@@ -7468,7 +8049,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>24</v>
@@ -7491,7 +8072,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>24</v>
@@ -7514,7 +8095,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>24</v>
@@ -7537,7 +8118,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -7556,7 +8137,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>24</v>
@@ -7577,7 +8158,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>24</v>
@@ -7600,7 +8181,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>24</v>
@@ -7625,7 +8206,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>24</v>
@@ -7648,7 +8229,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>24</v>
@@ -7671,7 +8252,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>24</v>
@@ -7694,7 +8275,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>24</v>
@@ -7717,7 +8298,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>24</v>
@@ -7740,7 +8321,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>24</v>
@@ -7763,7 +8344,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>24</v>
@@ -7786,7 +8367,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>24</v>
@@ -7809,7 +8390,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>24</v>
@@ -7832,7 +8413,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>24</v>
@@ -7855,7 +8436,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -7874,7 +8455,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>24</v>
@@ -7897,7 +8478,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>24</v>
@@ -7920,7 +8501,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>24</v>
@@ -7943,7 +8524,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>24</v>
@@ -7966,7 +8547,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>24</v>
@@ -7989,7 +8570,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>24</v>
@@ -8012,7 +8593,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>24</v>
@@ -8035,7 +8616,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>24</v>
@@ -8058,7 +8639,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>24</v>
@@ -8081,7 +8662,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>24</v>
@@ -8104,7 +8685,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8123,7 +8704,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>24</v>
@@ -8148,7 +8729,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8167,7 +8748,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>24</v>
@@ -8188,7 +8769,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="19" customHeight="1">
+    <row r="101" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>24</v>
@@ -8213,7 +8794,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8232,7 +8813,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>24</v>
@@ -8255,7 +8836,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>24</v>
@@ -8280,7 +8861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>24</v>
@@ -8303,7 +8884,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>24</v>
@@ -8324,7 +8905,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8343,7 +8924,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>24</v>
@@ -8368,7 +8949,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>24</v>
@@ -8391,7 +8972,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>24</v>
@@ -8414,7 +8995,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>24</v>
@@ -8437,7 +9018,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>24</v>
@@ -8460,7 +9041,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>24</v>
@@ -8483,7 +9064,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>24</v>
@@ -8506,7 +9087,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8525,7 +9106,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>24</v>
@@ -8548,7 +9129,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>24</v>
@@ -8571,7 +9152,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>24</v>
@@ -8594,7 +9175,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -8613,7 +9194,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>24</v>
@@ -8636,7 +9217,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>24</v>
@@ -8659,7 +9240,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>24</v>
@@ -8682,7 +9263,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>24</v>
@@ -8705,7 +9286,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>24</v>
@@ -8728,7 +9309,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>24</v>
@@ -8751,7 +9332,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8770,7 +9351,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>24</v>
@@ -8795,7 +9376,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>24</v>
@@ -8818,7 +9399,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>24</v>
@@ -8841,7 +9422,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>24</v>
@@ -8864,7 +9445,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>24</v>
@@ -8887,7 +9468,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>24</v>
@@ -8910,7 +9491,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>24</v>
@@ -8933,7 +9514,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>24</v>
@@ -8956,7 +9537,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>24</v>
@@ -8979,7 +9560,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -8998,7 +9579,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>24</v>
@@ -9023,7 +9604,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>24</v>
@@ -9044,7 +9625,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>24</v>
@@ -9067,7 +9648,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>24</v>
@@ -9090,7 +9671,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>24</v>
@@ -9113,7 +9694,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>24</v>
@@ -9136,7 +9717,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>24</v>
@@ -9159,7 +9740,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>24</v>
@@ -9182,7 +9763,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>24</v>
@@ -9205,7 +9786,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>24</v>
@@ -9228,7 +9809,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>24</v>
@@ -9251,7 +9832,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>24</v>
@@ -9274,7 +9855,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>24</v>
@@ -9297,7 +9878,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>24</v>
@@ -9320,7 +9901,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9339,7 +9920,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>24</v>
@@ -9362,7 +9943,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9381,7 +9962,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>24</v>
@@ -9404,7 +9985,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>24</v>
@@ -9427,7 +10008,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9446,7 +10027,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>24</v>
@@ -9471,7 +10052,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>24</v>
@@ -9494,7 +10075,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>24</v>
@@ -9517,7 +10098,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>24</v>
@@ -9540,7 +10121,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>24</v>
@@ -9563,7 +10144,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>24</v>
@@ -9586,7 +10167,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>24</v>
@@ -9609,7 +10190,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>24</v>
@@ -9632,7 +10213,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>24</v>
@@ -9655,7 +10236,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>24</v>
@@ -9678,7 +10259,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -9697,7 +10278,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>24</v>
@@ -9722,7 +10303,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>24</v>
@@ -9745,7 +10326,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>24</v>
@@ -9768,7 +10349,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>24</v>
@@ -9791,7 +10372,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>24</v>
@@ -9814,7 +10395,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>24</v>
@@ -9837,7 +10418,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>24</v>
@@ -9860,7 +10441,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>24</v>
@@ -9883,7 +10464,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>24</v>
@@ -9906,7 +10487,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>24</v>
@@ -9929,7 +10510,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -9948,7 +10529,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>24</v>
@@ -9971,7 +10552,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>24</v>
@@ -9994,7 +10575,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>24</v>
@@ -10017,7 +10598,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>24</v>
@@ -10040,7 +10621,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10059,7 +10640,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>24</v>
@@ -10082,7 +10663,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>24</v>
@@ -10105,7 +10686,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>24</v>
@@ -10128,7 +10709,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>24</v>
@@ -10151,7 +10732,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10170,7 +10751,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>24</v>
@@ -10191,7 +10772,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>24</v>
@@ -10214,7 +10795,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10233,7 +10814,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>24</v>
@@ -10256,7 +10837,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>24</v>
@@ -10281,7 +10862,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>24</v>
@@ -10302,7 +10883,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>24</v>
@@ -10327,7 +10908,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>24</v>
@@ -10352,7 +10933,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10371,7 +10952,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>24</v>
@@ -10396,7 +10977,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>24</v>
@@ -10419,7 +11000,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>24</v>
@@ -10442,7 +11023,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>24</v>
@@ -10465,7 +11046,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>24</v>
@@ -10488,7 +11069,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>24</v>
@@ -10511,7 +11092,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>24</v>
@@ -10534,7 +11115,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>24</v>
@@ -10557,7 +11138,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>24</v>
@@ -10580,7 +11161,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -10599,7 +11180,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>24</v>
@@ -10624,7 +11205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>24</v>
@@ -10647,7 +11228,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>24</v>
@@ -10670,7 +11251,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>24</v>
@@ -10693,7 +11274,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>24</v>
@@ -10716,7 +11297,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>24</v>
@@ -10739,7 +11320,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>24</v>
@@ -10762,7 +11343,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>24</v>
@@ -10785,7 +11366,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>24</v>
@@ -10808,7 +11389,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -10827,7 +11408,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>24</v>
@@ -10848,7 +11429,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>24</v>
@@ -10871,7 +11452,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>24</v>
@@ -10894,7 +11475,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>24</v>
@@ -10917,7 +11498,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>24</v>
@@ -10940,7 +11521,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>24</v>
@@ -10963,7 +11544,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>24</v>
@@ -10986,7 +11567,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>24</v>
@@ -11009,7 +11590,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>24</v>
@@ -11032,7 +11613,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>24</v>
@@ -11055,7 +11636,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>24</v>
@@ -11078,7 +11659,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>24</v>
@@ -11101,7 +11682,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>24</v>
@@ -11124,7 +11705,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>24</v>
@@ -11147,7 +11728,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>24</v>
@@ -11170,7 +11751,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>24</v>
@@ -11193,7 +11774,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11212,7 +11793,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>24</v>
@@ -11233,7 +11814,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>24</v>
@@ -11256,7 +11837,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>24</v>
@@ -11279,7 +11860,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>24</v>
@@ -11302,7 +11883,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>24</v>
@@ -11325,7 +11906,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>24</v>
@@ -11348,7 +11929,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>24</v>
@@ -11371,7 +11952,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>24</v>
@@ -11394,7 +11975,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>24</v>
@@ -11417,7 +11998,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>24</v>
@@ -11440,7 +12021,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>24</v>
@@ -11463,7 +12044,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>24</v>
@@ -11486,7 +12067,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>24</v>
@@ -11509,7 +12090,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>24</v>
@@ -11532,7 +12113,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>24</v>
@@ -11555,7 +12136,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>24</v>
@@ -11578,7 +12159,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -11597,7 +12178,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>24</v>
@@ -11622,7 +12203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>24</v>
@@ -11645,7 +12226,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>24</v>
@@ -11668,7 +12249,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>24</v>
@@ -11691,7 +12272,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>24</v>
@@ -11714,7 +12295,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -11733,7 +12314,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>24</v>
@@ -11758,7 +12339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>24</v>
@@ -11781,7 +12362,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -11800,7 +12381,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -11819,7 +12400,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -11838,7 +12419,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>24</v>
@@ -11859,7 +12440,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>24</v>
@@ -11882,7 +12463,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>24</v>
@@ -11905,7 +12486,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>24</v>
@@ -11928,7 +12509,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>24</v>
@@ -11951,7 +12532,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>24</v>
@@ -11974,7 +12555,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>24</v>
@@ -11997,7 +12578,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>24</v>
@@ -12020,7 +12601,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>24</v>
@@ -12043,7 +12624,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>24</v>
@@ -12066,7 +12647,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>24</v>
@@ -12089,7 +12670,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12108,7 +12689,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>24</v>
@@ -12131,7 +12712,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12150,7 +12731,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>24</v>
@@ -12175,7 +12756,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>24</v>
@@ -12198,7 +12779,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>24</v>
@@ -12221,7 +12802,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>24</v>
@@ -12244,7 +12825,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>24</v>
@@ -12267,7 +12848,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>24</v>
@@ -12290,7 +12871,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>24</v>
@@ -12313,7 +12894,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>24</v>
@@ -12336,7 +12917,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>24</v>
@@ -12359,7 +12940,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>24</v>
@@ -12382,7 +12963,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>24</v>
@@ -12405,7 +12986,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12424,7 +13005,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>24</v>
@@ -12447,7 +13028,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12466,7 +13047,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>24</v>
@@ -12487,7 +13068,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12506,7 +13087,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>24</v>
@@ -12527,7 +13108,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12546,7 +13127,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>24</v>
@@ -12567,7 +13148,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -12586,7 +13167,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>24</v>
@@ -12609,7 +13190,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -12628,7 +13209,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>24</v>
@@ -12653,7 +13234,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>24</v>
@@ -12676,7 +13257,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>24</v>
@@ -12699,7 +13280,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>24</v>
@@ -12722,7 +13303,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>24</v>
@@ -12745,7 +13326,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>24</v>
@@ -12768,7 +13349,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>24</v>
@@ -12791,7 +13372,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>24</v>
@@ -12814,7 +13395,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>24</v>
@@ -12837,7 +13418,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -12856,7 +13437,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>24</v>
@@ -12879,7 +13460,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>24</v>
@@ -12902,7 +13483,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>24</v>
@@ -12925,7 +13506,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>24</v>
@@ -12948,7 +13529,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -12967,7 +13548,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>24</v>
@@ -12990,7 +13571,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>24</v>
@@ -13013,7 +13594,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>24</v>
@@ -13038,7 +13619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13057,7 +13638,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>24</v>
@@ -13082,7 +13663,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>24</v>
@@ -13105,7 +13686,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13124,7 +13705,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>24</v>
@@ -13145,7 +13726,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>24</v>
@@ -13166,7 +13747,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>24</v>
@@ -13189,7 +13770,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13208,7 +13789,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13227,7 +13808,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>24</v>
@@ -13252,7 +13833,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>24</v>

--- a/spec/files/small_list_incomplete.xlsx
+++ b/spec/files/small_list_incomplete.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
+    <workbookView xWindow="3920" yWindow="3920" windowWidth="21680" windowHeight="12140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="478">
   <si>
     <t>type</t>
   </si>
@@ -1455,6 +1455,15 @@
   </si>
   <si>
     <t>(double)</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1557,6 +1566,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2802,7 +2817,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2864,6 +2879,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1233">
@@ -4112,7 +4134,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
@@ -4472,17 +4494,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4506,17 +4528,17 @@
       <selection activeCell="C19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="21"/>
@@ -4525,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>449</v>
       </c>
@@ -4534,7 +4556,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>450</v>
       </c>
@@ -4545,7 +4567,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>453</v>
       </c>
@@ -4564,7 +4586,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>456</v>
       </c>
@@ -4583,7 +4605,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -4592,7 +4614,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -4603,7 +4625,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4611,7 +4633,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -4619,7 +4641,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
@@ -4630,7 +4652,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>462</v>
       </c>
@@ -4638,7 +4660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A15" s="12" t="s">
         <v>463</v>
       </c>
@@ -4649,7 +4671,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4657,7 +4679,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4665,7 +4687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>465</v>
       </c>
@@ -4674,7 +4696,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
@@ -4687,7 +4709,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4695,7 +4717,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
@@ -4712,7 +4734,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4729,7 +4751,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -4778,25 +4800,25 @@
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4824,7 +4846,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4837,7 +4859,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4902,7 +4924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -4926,7 +4948,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>24</v>
@@ -4957,7 +4979,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>25</v>
@@ -4997,7 +5019,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>24</v>
@@ -5025,7 +5047,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>24</v>
@@ -5053,7 +5075,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -5081,7 +5103,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>24</v>
@@ -5109,7 +5131,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>24</v>
@@ -5137,7 +5159,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -5165,7 +5187,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>24</v>
@@ -5193,7 +5215,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" customFormat="1">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -5207,7 +5229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" customFormat="1">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -5230,7 +5252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5266,7 +5288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -5286,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -5306,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -5326,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" customFormat="1" ht="15">
       <c r="A20" s="20" t="b">
         <v>1</v>
       </c>
@@ -5350,7 +5372,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -5387,7 +5409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -5424,7 +5446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -5447,7 +5469,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" customFormat="1" ht="15">
       <c r="A24" s="20" t="b">
         <v>1</v>
       </c>
@@ -5466,7 +5488,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -5505,7 +5527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -5528,7 +5550,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -5551,7 +5573,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -5574,7 +5596,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" customFormat="1" ht="15">
       <c r="A29" s="20" t="b">
         <v>1</v>
       </c>
@@ -5593,7 +5615,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -5632,7 +5654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
         <v>24</v>
@@ -5655,7 +5677,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -5678,7 +5700,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -5701,7 +5723,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" ht="15">
       <c r="A34" s="20" t="b">
         <v>1</v>
       </c>
@@ -5720,7 +5742,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -5745,7 +5767,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -5780,7 +5802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" customFormat="1" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>24</v>
@@ -5803,7 +5825,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" customFormat="1" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>24</v>
@@ -5826,7 +5848,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" customFormat="1" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
@@ -5849,7 +5871,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" customFormat="1" ht="15">
       <c r="A40" s="20" t="b">
         <v>1</v>
       </c>
@@ -5868,7 +5890,7 @@
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" customFormat="1" ht="15">
       <c r="A41" s="20"/>
       <c r="B41" s="20" t="s">
         <v>24</v>
@@ -5893,7 +5915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" customFormat="1" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -5953,28 +5975,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -6000,36 +6022,45 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="A2" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="28" t="s">
         <v>472</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>476</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="30">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29" t="s">
+        <v>477</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="18"/>
@@ -6041,7 +6072,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -6056,7 +6087,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -6073,7 +6104,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6089,7 +6120,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="15"/>
@@ -6105,7 +6136,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6121,7 +6152,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6137,7 +6168,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6153,7 +6184,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6169,7 +6200,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6185,7 +6216,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6201,9 +6232,9 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" customFormat="1"/>
+    <row r="15" spans="1:22" customFormat="1"/>
+    <row r="16" spans="1:22" customFormat="1">
       <c r="C16" s="19"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -6211,10 +6242,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1"/>
+    <row r="18" spans="1:14" customFormat="1"/>
+    <row r="19" spans="1:14" customFormat="1"/>
+    <row r="20" spans="1:14" customFormat="1" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -6230,7 +6261,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6246,7 +6277,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -6262,7 +6293,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6273,7 +6304,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" customFormat="1" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6284,7 +6315,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6298,7 +6329,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -6309,7 +6340,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -6320,7 +6351,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -6331,7 +6362,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" customFormat="1" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -6342,7 +6373,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -6356,7 +6387,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -6367,7 +6398,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -6378,7 +6409,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -6389,7 +6420,7 @@
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -6400,7 +6431,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -6411,7 +6442,7 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -6424,7 +6455,7 @@
       <c r="L36" s="20"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" customFormat="1" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -6435,7 +6466,7 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" customFormat="1" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -6446,7 +6477,7 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" customFormat="1" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -6457,7 +6488,7 @@
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" customFormat="1" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -6468,7 +6499,7 @@
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" customFormat="1" ht="15">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -6479,7 +6510,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" customFormat="1" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -6500,6 +6531,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6511,19 +6547,19 @@
       <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6542,7 +6578,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>24</v>
@@ -6563,7 +6599,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
@@ -6586,7 +6622,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>24</v>
@@ -6609,7 +6645,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>24</v>
@@ -6632,7 +6668,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>24</v>
@@ -6655,7 +6691,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>24</v>
@@ -6678,7 +6714,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>24</v>
@@ -6701,7 +6737,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>24</v>
@@ -6724,7 +6760,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>24</v>
@@ -6747,7 +6783,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6766,7 +6802,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>24</v>
@@ -6787,7 +6823,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>24</v>
@@ -6810,7 +6846,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>24</v>
@@ -6833,7 +6869,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>24</v>
@@ -6856,7 +6892,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>24</v>
@@ -6879,7 +6915,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
@@ -6902,7 +6938,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -6925,7 +6961,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>24</v>
@@ -6948,7 +6984,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>24</v>
@@ -6971,7 +7007,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6990,7 +7026,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>24</v>
@@ -7013,7 +7049,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -7036,7 +7072,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>24</v>
@@ -7059,7 +7095,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>24</v>
@@ -7082,7 +7118,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -7105,7 +7141,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -7128,7 +7164,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -7151,7 +7187,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>24</v>
@@ -7174,7 +7210,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>24</v>
@@ -7197,7 +7233,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -7216,7 +7252,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -7237,7 +7273,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -7260,7 +7296,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -7283,7 +7319,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -7306,7 +7342,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>24</v>
@@ -7329,7 +7365,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>24</v>
@@ -7352,7 +7388,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>24</v>
@@ -7375,7 +7411,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
@@ -7398,7 +7434,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>24</v>
@@ -7421,7 +7457,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -7440,7 +7476,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>24</v>
@@ -7461,7 +7497,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>24</v>
@@ -7484,7 +7520,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>24</v>
@@ -7507,7 +7543,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>24</v>
@@ -7530,7 +7566,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>24</v>
@@ -7553,7 +7589,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>24</v>
@@ -7576,7 +7612,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>24</v>
@@ -7599,7 +7635,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>24</v>
@@ -7622,7 +7658,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>24</v>
@@ -7645,7 +7681,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7664,7 +7700,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>24</v>
@@ -7685,7 +7721,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>24</v>
@@ -7708,7 +7744,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>24</v>
@@ -7731,7 +7767,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>24</v>
@@ -7754,7 +7790,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>24</v>
@@ -7777,7 +7813,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>24</v>
@@ -7800,7 +7836,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>24</v>
@@ -7823,7 +7859,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>24</v>
@@ -7846,7 +7882,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>24</v>
@@ -7869,7 +7905,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7888,7 +7924,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>24</v>
@@ -7909,7 +7945,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>24</v>
@@ -7934,7 +7970,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>24</v>
@@ -7957,7 +7993,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>24</v>
@@ -7980,7 +8016,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>24</v>
@@ -8003,7 +8039,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>24</v>
@@ -8026,7 +8062,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>24</v>
@@ -8049,7 +8085,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>24</v>
@@ -8072,7 +8108,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>24</v>
@@ -8095,7 +8131,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>24</v>
@@ -8118,7 +8154,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -8137,7 +8173,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>24</v>
@@ -8158,7 +8194,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>24</v>
@@ -8181,7 +8217,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>24</v>
@@ -8206,7 +8242,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>24</v>
@@ -8229,7 +8265,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>24</v>
@@ -8252,7 +8288,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>24</v>
@@ -8275,7 +8311,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>24</v>
@@ -8298,7 +8334,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>24</v>
@@ -8321,7 +8357,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>24</v>
@@ -8344,7 +8380,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>24</v>
@@ -8367,7 +8403,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>24</v>
@@ -8390,7 +8426,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>24</v>
@@ -8413,7 +8449,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>24</v>
@@ -8436,7 +8472,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -8455,7 +8491,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>24</v>
@@ -8478,7 +8514,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>24</v>
@@ -8501,7 +8537,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>24</v>
@@ -8524,7 +8560,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>24</v>
@@ -8547,7 +8583,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>24</v>
@@ -8570,7 +8606,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>24</v>
@@ -8593,7 +8629,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>24</v>
@@ -8616,7 +8652,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>24</v>
@@ -8639,7 +8675,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>24</v>
@@ -8662,7 +8698,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>24</v>
@@ -8685,7 +8721,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8704,7 +8740,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>24</v>
@@ -8729,7 +8765,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8748,7 +8784,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>24</v>
@@ -8769,7 +8805,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>24</v>
@@ -8794,7 +8830,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8813,7 +8849,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>24</v>
@@ -8836,7 +8872,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>24</v>
@@ -8861,7 +8897,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>24</v>
@@ -8884,7 +8920,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>24</v>
@@ -8905,7 +8941,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8924,7 +8960,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>24</v>
@@ -8949,7 +8985,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>24</v>
@@ -8972,7 +9008,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>24</v>
@@ -8995,7 +9031,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>24</v>
@@ -9018,7 +9054,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>24</v>
@@ -9041,7 +9077,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>24</v>
@@ -9064,7 +9100,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>24</v>
@@ -9087,7 +9123,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -9106,7 +9142,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>24</v>
@@ -9129,7 +9165,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>24</v>
@@ -9152,7 +9188,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>24</v>
@@ -9175,7 +9211,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -9194,7 +9230,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>24</v>
@@ -9217,7 +9253,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>24</v>
@@ -9240,7 +9276,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>24</v>
@@ -9263,7 +9299,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>24</v>
@@ -9286,7 +9322,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>24</v>
@@ -9309,7 +9345,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>24</v>
@@ -9332,7 +9368,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -9351,7 +9387,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>24</v>
@@ -9376,7 +9412,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>24</v>
@@ -9399,7 +9435,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>24</v>
@@ -9422,7 +9458,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>24</v>
@@ -9445,7 +9481,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>24</v>
@@ -9468,7 +9504,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>24</v>
@@ -9491,7 +9527,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>24</v>
@@ -9514,7 +9550,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>24</v>
@@ -9537,7 +9573,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>24</v>
@@ -9560,7 +9596,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9579,7 +9615,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>24</v>
@@ -9604,7 +9640,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>24</v>
@@ -9625,7 +9661,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>24</v>
@@ -9648,7 +9684,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>24</v>
@@ -9671,7 +9707,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>24</v>
@@ -9694,7 +9730,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>24</v>
@@ -9717,7 +9753,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>24</v>
@@ -9740,7 +9776,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>24</v>
@@ -9763,7 +9799,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>24</v>
@@ -9786,7 +9822,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>24</v>
@@ -9809,7 +9845,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>24</v>
@@ -9832,7 +9868,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>24</v>
@@ -9855,7 +9891,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>24</v>
@@ -9878,7 +9914,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>24</v>
@@ -9901,7 +9937,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9920,7 +9956,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>24</v>
@@ -9943,7 +9979,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9962,7 +9998,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>24</v>
@@ -9985,7 +10021,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>24</v>
@@ -10008,7 +10044,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -10027,7 +10063,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>24</v>
@@ -10052,7 +10088,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>24</v>
@@ -10075,7 +10111,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>24</v>
@@ -10098,7 +10134,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>24</v>
@@ -10121,7 +10157,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>24</v>
@@ -10144,7 +10180,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>24</v>
@@ -10167,7 +10203,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>24</v>
@@ -10190,7 +10226,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>24</v>
@@ -10213,7 +10249,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>24</v>
@@ -10236,7 +10272,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>24</v>
@@ -10259,7 +10295,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -10278,7 +10314,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>24</v>
@@ -10303,7 +10339,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>24</v>
@@ -10326,7 +10362,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>24</v>
@@ -10349,7 +10385,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>24</v>
@@ -10372,7 +10408,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>24</v>
@@ -10395,7 +10431,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>24</v>
@@ -10418,7 +10454,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>24</v>
@@ -10441,7 +10477,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>24</v>
@@ -10464,7 +10500,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>24</v>
@@ -10487,7 +10523,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>24</v>
@@ -10510,7 +10546,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10529,7 +10565,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>24</v>
@@ -10552,7 +10588,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>24</v>
@@ -10575,7 +10611,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>24</v>
@@ -10598,7 +10634,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>24</v>
@@ -10621,7 +10657,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10640,7 +10676,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>24</v>
@@ -10663,7 +10699,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>24</v>
@@ -10686,7 +10722,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>24</v>
@@ -10709,7 +10745,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>24</v>
@@ -10732,7 +10768,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10751,7 +10787,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>24</v>
@@ -10772,7 +10808,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>24</v>
@@ -10795,7 +10831,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10814,7 +10850,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>24</v>
@@ -10837,7 +10873,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>24</v>
@@ -10862,7 +10898,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>24</v>
@@ -10883,7 +10919,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>24</v>
@@ -10908,7 +10944,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>24</v>
@@ -10933,7 +10969,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10952,7 +10988,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>24</v>
@@ -10977,7 +11013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>24</v>
@@ -11000,7 +11036,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>24</v>
@@ -11023,7 +11059,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>24</v>
@@ -11046,7 +11082,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>24</v>
@@ -11069,7 +11105,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>24</v>
@@ -11092,7 +11128,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>24</v>
@@ -11115,7 +11151,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>24</v>
@@ -11138,7 +11174,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>24</v>
@@ -11161,7 +11197,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -11180,7 +11216,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>24</v>
@@ -11205,7 +11241,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>24</v>
@@ -11228,7 +11264,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>24</v>
@@ -11251,7 +11287,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>24</v>
@@ -11274,7 +11310,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>24</v>
@@ -11297,7 +11333,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>24</v>
@@ -11320,7 +11356,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>24</v>
@@ -11343,7 +11379,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>24</v>
@@ -11366,7 +11402,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>24</v>
@@ -11389,7 +11425,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -11408,7 +11444,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>24</v>
@@ -11429,7 +11465,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>24</v>
@@ -11452,7 +11488,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>24</v>
@@ -11475,7 +11511,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>24</v>
@@ -11498,7 +11534,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>24</v>
@@ -11521,7 +11557,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>24</v>
@@ -11544,7 +11580,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>24</v>
@@ -11567,7 +11603,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>24</v>
@@ -11590,7 +11626,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>24</v>
@@ -11613,7 +11649,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>24</v>
@@ -11636,7 +11672,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>24</v>
@@ -11659,7 +11695,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>24</v>
@@ -11682,7 +11718,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>24</v>
@@ -11705,7 +11741,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>24</v>
@@ -11728,7 +11764,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>24</v>
@@ -11751,7 +11787,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>24</v>
@@ -11774,7 +11810,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11793,7 +11829,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>24</v>
@@ -11814,7 +11850,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>24</v>
@@ -11837,7 +11873,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>24</v>
@@ -11860,7 +11896,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>24</v>
@@ -11883,7 +11919,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>24</v>
@@ -11906,7 +11942,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>24</v>
@@ -11929,7 +11965,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>24</v>
@@ -11952,7 +11988,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>24</v>
@@ -11975,7 +12011,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>24</v>
@@ -11998,7 +12034,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>24</v>
@@ -12021,7 +12057,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>24</v>
@@ -12044,7 +12080,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>24</v>
@@ -12067,7 +12103,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>24</v>
@@ -12090,7 +12126,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>24</v>
@@ -12113,7 +12149,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>24</v>
@@ -12136,7 +12172,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>24</v>
@@ -12159,7 +12195,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -12178,7 +12214,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>24</v>
@@ -12203,7 +12239,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>24</v>
@@ -12226,7 +12262,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>24</v>
@@ -12249,7 +12285,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>24</v>
@@ -12272,7 +12308,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>24</v>
@@ -12295,7 +12331,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -12314,7 +12350,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>24</v>
@@ -12339,7 +12375,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>24</v>
@@ -12362,7 +12398,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -12381,7 +12417,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -12400,7 +12436,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -12419,7 +12455,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>24</v>
@@ -12440,7 +12476,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>24</v>
@@ -12463,7 +12499,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>24</v>
@@ -12486,7 +12522,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>24</v>
@@ -12509,7 +12545,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>24</v>
@@ -12532,7 +12568,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>24</v>
@@ -12555,7 +12591,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>24</v>
@@ -12578,7 +12614,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>24</v>
@@ -12601,7 +12637,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>24</v>
@@ -12624,7 +12660,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>24</v>
@@ -12647,7 +12683,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>24</v>
@@ -12670,7 +12706,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12689,7 +12725,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>24</v>
@@ -12712,7 +12748,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12731,7 +12767,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>24</v>
@@ -12756,7 +12792,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>24</v>
@@ -12779,7 +12815,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>24</v>
@@ -12802,7 +12838,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>24</v>
@@ -12825,7 +12861,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>24</v>
@@ -12848,7 +12884,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>24</v>
@@ -12871,7 +12907,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>24</v>
@@ -12894,7 +12930,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>24</v>
@@ -12917,7 +12953,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>24</v>
@@ -12940,7 +12976,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>24</v>
@@ -12963,7 +12999,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>24</v>
@@ -12986,7 +13022,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -13005,7 +13041,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>24</v>
@@ -13028,7 +13064,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -13047,7 +13083,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>24</v>
@@ -13068,7 +13104,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -13087,7 +13123,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>24</v>
@@ -13108,7 +13144,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -13127,7 +13163,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>24</v>
@@ -13148,7 +13184,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -13167,7 +13203,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>24</v>
@@ -13190,7 +13226,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -13209,7 +13245,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>24</v>
@@ -13234,7 +13270,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>24</v>
@@ -13257,7 +13293,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>24</v>
@@ -13280,7 +13316,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>24</v>
@@ -13303,7 +13339,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>24</v>
@@ -13326,7 +13362,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>24</v>
@@ -13349,7 +13385,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>24</v>
@@ -13372,7 +13408,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>24</v>
@@ -13395,7 +13431,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>24</v>
@@ -13418,7 +13454,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -13437,7 +13473,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>24</v>
@@ -13460,7 +13496,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>24</v>
@@ -13483,7 +13519,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>24</v>
@@ -13506,7 +13542,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>24</v>
@@ -13529,7 +13565,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13548,7 +13584,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>24</v>
@@ -13571,7 +13607,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>24</v>
@@ -13594,7 +13630,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>24</v>
@@ -13619,7 +13655,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13638,7 +13674,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>24</v>
@@ -13663,7 +13699,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>24</v>
@@ -13686,7 +13722,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13705,7 +13741,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>24</v>
@@ -13726,7 +13762,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>24</v>
@@ -13747,7 +13783,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>24</v>
@@ -13770,7 +13806,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13789,7 +13825,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13808,7 +13844,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>24</v>
@@ -13833,7 +13869,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>24</v>
